--- a/mbs-perturbation/chatty/randomForest/chatty-randomForest-results.xlsx
+++ b/mbs-perturbation/chatty/randomForest/chatty-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1935483870967742</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7429347826086958</v>
+        <v>0.8221153846153847</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9898989898989898</v>
+        <v>0.9745192307692307</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8565217391304347</v>
+        <v>0.9806763285024155</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9594202898550726</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956521739130435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3987096774193549</v>
+        <v>0.361904761904762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9170015371102329</v>
+        <v>0.9473462467484207</v>
       </c>
     </row>
   </sheetData>
